--- a/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
@@ -451,1135 +451,1535 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2658</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2944</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>399011</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>中海医疗保健主题股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>90.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5861</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>008328</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>诺安新兴产业混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>90.97</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.86</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4588</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2633</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010185</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中金瑞康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010218</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001464</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001823</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000913</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>农银医疗保健主题股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000452</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方医药保健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007718</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>63.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>82.60</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008293</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>农银汇理创新医疗混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009468</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009469</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010500</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>82.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>050026</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时医疗保健行业混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>240020</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华宝医药生物优选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007261</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>融通消费升级混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>290008</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰信发展主题混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>360005</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>光大保德信红利混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000757</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华富智慧城市灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001464</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>光大保德信鼎鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001563</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华富健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001823</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>光大保德信鼎鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001852</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008445</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>融通产业趋势先锋股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009891</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>融通产业趋势臻选股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>75.30</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002472</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>光大保德信先进服务业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>84.88</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>89.50</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>0.95</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005237</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>银华医疗健康量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005238</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>银华医疗健康量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003739</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>新华鑫弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>32.20</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005689</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006277</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中金瑞和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>63.52</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006278</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中金瑞和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>63.52</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009273</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010159</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010185</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中金瑞康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>61.77</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010218</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中金瑞泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>60.84</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>673050</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>西部利得新盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>73.64</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>010054</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>万家健康产业混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1589,7 +1989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1610,15 +2010,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>050026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>博时医疗保健行业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>56.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005005</t>
+          <t>001852</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合A</t>
+          <t>融通中国风1号灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.63</t>
+          <t>39.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9701</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005006</t>
+          <t>000913</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合C</t>
+          <t>农银医疗保健主题股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.63</t>
+          <t>26.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005237</t>
+          <t>000452</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华医疗健康量化优选股票A</t>
+          <t>南方医药保健灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>26.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005238</t>
+          <t>003940</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华医疗健康量化优选股票C</t>
+          <t>银华盛世精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>58.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5587</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003940</t>
+          <t>008293</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华盛世精选灵活配置混合</t>
+          <t>农银汇理创新医疗混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8678</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>399011</t>
+          <t>009468</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海医疗保健主题股票</t>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6730</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006277</t>
+          <t>399011</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中金瑞和灵活配置混合A</t>
+          <t>中海医疗保健主题股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>61.09</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6316</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006278</t>
+          <t>002446</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中金瑞和灵活配置混合C</t>
+          <t>广发利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>61.09</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>50.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005067</t>
+          <t>240020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>融通逆向策略灵活配置混合A</t>
+          <t>华宝医药生物优选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5677</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009270</t>
+          <t>009843</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>融通逆向策略灵活配置混合C</t>
+          <t>中金泰顺12个月定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007527</t>
+          <t>002708</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合A</t>
+          <t>大摩健康产业混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007528</t>
+          <t>009891</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合C</t>
+          <t>融通产业趋势臻选股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005489</t>
+          <t>008328</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中金衡优灵活配置混合A</t>
+          <t>诺安新兴产业混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4512</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>000878</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中金衡优灵活配置混合C</t>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000913</t>
+          <t>010654</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>农银医疗保健主题股票</t>
+          <t>天弘医药创新混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005630</t>
+          <t>001558</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华安研究精选混合</t>
+          <t>天弘医疗健康混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>80.95</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009843</t>
+          <t>519655</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中金泰顺12个月定期开放混合</t>
+          <t>银河现代服务主题灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>61.65</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009891</t>
+          <t>001559</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>融通产业趋势臻选股票</t>
+          <t>天弘医疗健康混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>006277</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>中金瑞和灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>233009</t>
+          <t>005630</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大摩多因子精选策略混合</t>
+          <t>华安研究精选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006193</t>
+          <t>168105</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鑫元核心资产股票A</t>
+          <t>九泰泰富定增主题灵活配置混合型</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006194</t>
+          <t>008445</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鑫元核心资产股票C</t>
+          <t>融通产业趋势先锋股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>240020</t>
+          <t>233009</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华宝医药生物优选混合</t>
+          <t>大摩多因子精选策略混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>000452</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>南方医药保健灵活配置混合</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>009531</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
+          <t>九泰锐和18个月定期开放混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2358,25 +3028,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>000878</t>
+          <t>000879</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中海医药健康产业精选灵活配置混合 - A</t>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>86.60</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>4.44</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000879</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中海医药健康产业精选灵活配置混合 - C</t>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>86.60</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2424,15 +3114,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>91.16</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>6.04</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2442,25 +3142,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007005</t>
+          <t>009246</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中金新医药股票C</t>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>010654</t>
+          <t>009469</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天弘医药创新混合A</t>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010655</t>
+          <t>005489</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天弘医药创新混合C</t>
+          <t>中金衡优灵活配置混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>007257</t>
+          <t>010655</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>凯石沣混合A</t>
+          <t>天弘医药创新混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>53.17</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>007258</t>
+          <t>673050</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>凯石沣混合C</t>
+          <t>西部利得新盈灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>53.17</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>007261</t>
+          <t>009893</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>融通消费升级混合</t>
+          <t>摩根士丹利华鑫优悦安和混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>050026</t>
+          <t>610006</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合A</t>
+          <t>信达澳银产业升级混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>001558</t>
+          <t>007261</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天弘医疗健康混合A</t>
+          <t>融通消费升级混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001559</t>
+          <t>007527</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天弘医疗健康混合C</t>
+          <t>融通量化多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>9</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>519655</t>
+          <t>610004</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>银河现代服务主题灵活配置混合</t>
+          <t>信达澳银中小盘混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>001852</t>
+          <t>001861</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>融通中国风1号灵活配置混合A</t>
+          <t>富安达健康人生灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>009273</t>
+          <t>006278</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>融通中国风1号灵活配置混合C</t>
+          <t>中金瑞和灵活配置混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>005067</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>融通逆向策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>9</v>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>610004</t>
+          <t>007005</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>信达澳银中小盘混合</t>
+          <t>中金新医药股票C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -2834,26 +3674,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>610006</t>
+          <t>005237</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>信达澳银产业升级混合</t>
+          <t>银华医疗健康量化优选股票A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>9</v>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>005520</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票A</t>
+          <t>国投瑞银创新医疗灵活配置混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2890,25 +3750,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>003865</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票C</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>90.41</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2918,26 +3788,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>673050</t>
+          <t>011172</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>西部利得新盈灵活配置混合</t>
+          <t>广发利鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>58.13</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>10</v>
+          <t>50.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2946,25 +3826,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>009273</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>融通中国风1号灵活配置混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>50.93</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2974,26 +3864,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>011172</t>
+          <t>009270</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合C</t>
+          <t>融通逆向策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>50.93</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>7</v>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -3002,26 +3902,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>168105</t>
+          <t>005490</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>九泰泰富定增主题灵活配置混合型</t>
+          <t>中金衡优灵活配置混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>87.23</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>7</v>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>005520</t>
+          <t>007257</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
+          <t>凯石沣混合A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>10</v>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>002708</t>
+          <t>005238</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大摩健康产业混合</t>
+          <t>银华医疗健康量化优选股票C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>10</v>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -3086,26 +4016,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>003646</t>
+          <t>006193</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强A</t>
+          <t>鑫元核心资产股票A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>10</v>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -3114,26 +4054,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>003647</t>
+          <t>005005</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强C</t>
+          <t>中金金泽量化精选混合A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>10</v>
+          <t>51.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -3142,26 +4092,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>008293</t>
+          <t>003646</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>农银汇理创新医疗混合</t>
+          <t>创金合信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>81.48</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>3</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -3170,26 +4130,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008328</t>
+          <t>007258</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>诺安新兴产业混合</t>
+          <t>凯石沣混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>7</v>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -3198,25 +4168,35 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>008445</t>
+          <t>007528</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>融通产业趋势先锋股票</t>
+          <t>融通量化多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3226,26 +4206,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>009468</t>
+          <t>003647</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
+          <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>7</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -3254,26 +4244,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>009469</t>
+          <t>005006</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
+          <t>中金金泽量化精选混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>7</v>
+          <t>51.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -3282,26 +4282,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>009531</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>九泰锐和18个月定期开放混合</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>56.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3310,25 +4320,35 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>009246</t>
+          <t>006194</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫ESG量化先行混合</t>
+          <t>鑫元核心资产股票C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4355,4 +4356,2606 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3811</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2536</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9174</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8533</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6275</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5585</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5336</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4527</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4069</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3395</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3334</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰泰富定增主题灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6958,4 +6959,6596 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H173"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7718</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9447</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6861</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4798</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3481</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3292</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1099</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0810</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0353</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9708</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9609</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8910</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8847</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8796</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8177</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7982</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6393</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6382</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6339</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6317</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6303</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6290</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6066</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5110</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4902</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4893</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4832</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4702</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4650</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4615</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4588</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4384</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3918</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3107</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>64.67</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>64.67</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13551,4 +13552,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>172</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13560,7 +13561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13571,17 +13572,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13591,14 +13612,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>172</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.38</v>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -13607,14 +13650,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.14</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -13623,14 +13688,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.75</v>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4932</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -13639,13 +13726,1975 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9805</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8871</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7815</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7734</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6438</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6430</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>172</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15593,7 +15594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15604,17 +15605,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15624,14 +15645,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.98</v>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -15640,14 +15683,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>172</v>
-      </c>
-      <c r="D3" t="n">
-        <v>59.38</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -15656,14 +15721,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.14</v>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -15672,14 +15759,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>61</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.75</v>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -15688,13 +15797,1877 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4524</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>172</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17550,7 +17551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17561,17 +17562,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17581,14 +17602,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.17</v>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -17597,14 +17640,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.98</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -17613,14 +17678,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>172</v>
-      </c>
-      <c r="D4" t="n">
-        <v>59.38</v>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6659</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -17629,14 +17716,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.14</v>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -17645,14 +17754,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>61</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.75</v>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8019</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -17661,13 +17792,2005 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7708</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7554</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4686</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4314</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>39</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>15.23</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>14.17</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>22.98</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>59.38</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="D6" t="n">
-        <v>24.14</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>18.75</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>61</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.66</v>
       </c>
     </row>
@@ -600,6 +617,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3929</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6729</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2705,7 +4222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4661,7 +6178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6693,7 +8210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13285,7 +14802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15887,7 +17404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18261,7 +19778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300725-药石科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>10.55</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>15.23</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>14.17</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>22.98</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>59.38</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="D7" t="n">
-        <v>24.14</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>18.75</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1568 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>61</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>39</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2658</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2944</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5861</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4588</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2633</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010185</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中金瑞康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010218</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001464</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001823</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>63.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2172,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7820</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6243</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9434</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7266</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6927</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3768</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3598</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2116,7 +5589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4222,7 +7695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6178,7 +9651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8210,7 +11683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14802,7 +18275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17404,7 +20877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19776,1542 +23249,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001852</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>76.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9015</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>050026</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时医疗保健行业混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>68.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.8044</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000913</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>农银医疗保健主题股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.2658</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000452</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方医药保健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4774</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008293</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>农银汇理创新医疗混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2944</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009468</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8843</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>399011</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中海医疗保健主题股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5861</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008328</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4606</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009891</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>融通产业趋势臻选股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>75.30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4588</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>240020</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝医药生物优选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4148</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005689</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2633</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008445</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>融通产业趋势先锋股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2283</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006277</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中金瑞和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>63.52</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1899</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010185</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中金瑞康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>61.77</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1881</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010218</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中金瑞泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>60.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1493</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>360005</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>光大保德信红利混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1478</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007718</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.60</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1458</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1173</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>673050</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>西部利得新盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>73.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1007</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010054</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家健康产业混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0808</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002472</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>光大保德信先进服务业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>84.88</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001464</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>光大保德信鼎鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0715</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009469</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003739</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>新华鑫弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>32.20</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007261</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>融通消费升级混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001823</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>光大保德信鼎鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>000757</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华富智慧城市灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005237</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>银华医疗健康量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>290008</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰信发展主题混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009273</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001563</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华富健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006278</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中金瑞和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>63.52</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005238</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>银华医疗健康量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>010159</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>010500</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>82.60</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>